--- a/biology/Zoologie/Richard_William_George_Hingston/Richard_William_George_Hingston.xlsx
+++ b/biology/Zoologie/Richard_William_George_Hingston/Richard_William_George_Hingston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard William George Hingston (Londres, 17 janvier 1887[1] - Passage West, 5 août 1966) est un médecin, naturaliste, écrivain et explorateur irlandais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard William George Hingston (Londres, 17 janvier 1887 - Passage West, 5 août 1966) est un médecin, naturaliste, écrivain et explorateur irlandais.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses brillantes études à l'university College de Cork, il entre à l'Indian Medical Service. En 1913, il participe à une mission topographique au Pamir puis, lors de la Première Guerre mondiale, sert en Afrique de l'Est, en France puis en Mésopotamie où il obtient la Military Cross.
 Élu à la Royal Geographical Society le 22 juin 1922, en 1924, il est engagé comme naturaliste dans une expédition anglaise partie à la conquête de l'Himalaya. Il y constitue alors une importante collection de plus de 10 000 espèces animales et de 500 plantes dont l'araignée Euophrys omnisuperstes qui vit jusqu'à une altitude de 6700 m, soit l'animal le "plus haut du monde". Malgré son inexpérience de l'alpinisme, il parvient à aider Edward Felix Norton atteint de cécité.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Naturalist in Himalaya, 1920
 A naturalist in Hindustan, 1923
